--- a/Source/map.xlsx
+++ b/Source/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2227180cd231e55/Github/pages/timholthuijsen.github.io/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2227180cd231e55/Github/team-tumbleweed-data-analysis.github.io/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00581223-D6AB-4B5B-98A6-AA7E2DBDB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{00581223-D6AB-4B5B-98A6-AA7E2DBDB771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79A78C16-B81B-48B3-BCEB-7B5A64FFB196}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="2184" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Tijdstempel</t>
   </si>
@@ -44,12 +44,111 @@
   </si>
   <si>
     <t>Ariel Ebersberger</t>
+  </si>
+  <si>
+    <t>Sudarshan Bhat</t>
+  </si>
+  <si>
+    <t>2022/03/07 5:52:00 p.m. EET</t>
+  </si>
+  <si>
+    <t>Timon Schnauffer</t>
+  </si>
+  <si>
+    <t>2022/03/07 8:28:00 p.m. EET</t>
+  </si>
+  <si>
+    <t>Dimitri Buryak</t>
+  </si>
+  <si>
+    <t>2022/03/07 8:29:00 p.m. EET</t>
+  </si>
+  <si>
+    <t>Mikhail Maximchuk</t>
+  </si>
+  <si>
+    <t>Markus Renoldner</t>
+  </si>
+  <si>
+    <t>Cristian Ferent</t>
+  </si>
+  <si>
+    <t>Marco Zambolin</t>
+  </si>
+  <si>
+    <t>2022/03/08 1:24:00 p.m. IST</t>
+  </si>
+  <si>
+    <t>Anjaney Shrivastava</t>
+  </si>
+  <si>
+    <t>Luna Warzawa</t>
+  </si>
+  <si>
+    <t>One Mikulskyte</t>
+  </si>
+  <si>
+    <t>2022/03/07 9:23:00 p.m. EET</t>
+  </si>
+  <si>
+    <t>Lorenz Veithen</t>
+  </si>
+  <si>
+    <t>2022/03/08 9:03:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Amelie Finan</t>
+  </si>
+  <si>
+    <t>2022/03/08 9:23:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Sam de Wringer</t>
+  </si>
+  <si>
+    <t>2022/03/08 10:20:00 a.m. EET</t>
+  </si>
+  <si>
+    <t>Garnet John</t>
+  </si>
+  <si>
+    <t>2022/03/08 12:06 p.m EET</t>
+  </si>
+  <si>
+    <t>Kristián Cuervo</t>
+  </si>
+  <si>
+    <t>Julian Rothenbuchner</t>
+  </si>
+  <si>
+    <t>2022/03/08 13:31 p.m. EET</t>
+  </si>
+  <si>
+    <t>James Kingsnorth</t>
+  </si>
+  <si>
+    <t>2022/03/09 20:31 p.m. EET</t>
+  </si>
+  <si>
+    <t>Michael Sandrieser</t>
+  </si>
+  <si>
+    <t>2022/03/09 22:318 p.m. EET</t>
+  </si>
+  <si>
+    <t>Yara Eggenfellner</t>
+  </si>
+  <si>
+    <t>2022/03/19 15:50 pm EET</t>
+  </si>
+  <si>
+    <t>Anisha Nookala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -883,10 +982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -932,6 +1033,286 @@
         <v>16.373799999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>51.076481729999998</v>
+      </c>
+      <c r="D4">
+        <v>13.72879491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>48.202716979999998</v>
+      </c>
+      <c r="D5">
+        <v>16.337829249999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>48.182707209999997</v>
+      </c>
+      <c r="D6">
+        <v>16.41544734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>52.092875999999997</v>
+      </c>
+      <c r="D7">
+        <v>5.1044799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>59.329300000000003</v>
+      </c>
+      <c r="D8">
+        <v>18.0686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>52.070500000000003</v>
+      </c>
+      <c r="D9">
+        <v>4.3007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>51.987322050000003</v>
+      </c>
+      <c r="D10">
+        <v>4.3464926229999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>26.205912999999999</v>
+      </c>
+      <c r="D11">
+        <v>78.210032999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>52.361797000000003</v>
+      </c>
+      <c r="D12">
+        <v>4.9547569999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>52.354701810000002</v>
+      </c>
+      <c r="D13">
+        <v>4.9547569999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>52.014279999999999</v>
+      </c>
+      <c r="D14">
+        <v>4.3315400000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>48.2333</v>
+      </c>
+      <c r="D15">
+        <v>16.316700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>52.354059530000001</v>
+      </c>
+      <c r="D16">
+        <v>4.8842345979999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>47.507097309999999</v>
+      </c>
+      <c r="D17">
+        <v>19.045761649999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>52.002654999999997</v>
+      </c>
+      <c r="D18">
+        <v>4.3754249999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>52.010258</v>
+      </c>
+      <c r="D19">
+        <v>4.3508145000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>52.526434999999999</v>
+      </c>
+      <c r="D20">
+        <v>4.9613870000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>46.726614179999999</v>
+      </c>
+      <c r="D21">
+        <v>14.091202150000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>48.210922019999998</v>
+      </c>
+      <c r="D22">
+        <v>16.314243959999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>48.205603000000004</v>
+      </c>
+      <c r="D23">
+        <v>16.365772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
